--- a/output.xlsx
+++ b/output.xlsx
@@ -397,30 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>href</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>B01MT5GK6H</v>
-      </c>
-      <c r="B2" t="str">
-        <v>http://www.amazon.com/dp/B01MT5GK6H</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,13 +397,2000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>key</v>
+      </c>
+      <c r="B1" t="str">
+        <v>href</v>
+      </c>
+      <c r="C1" t="str">
+        <v>btnCountTxt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>B092QSRYB8</v>
+      </c>
+      <c r="B2" t="str">
+        <v>http://www.amazon.com/dp/B092QSRYB8</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>B0BXYRG1TZ</v>
+      </c>
+      <c r="B3" t="str">
+        <v>http://www.amazon.com/dp/B0BXYRG1TZ</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B09RGF3XLQ</v>
+      </c>
+      <c r="B4" t="str">
+        <v>http://www.amazon.com/dp/B09RGF3XLQ</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>B0CT5JN4R8</v>
+      </c>
+      <c r="B5" t="str">
+        <v>http://www.amazon.com/dp/B0CT5JN4R8</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B0CKSFVW5S</v>
+      </c>
+      <c r="B6" t="str">
+        <v>http://www.amazon.com/dp/B0CKSFVW5S</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B0B3XPTXGH</v>
+      </c>
+      <c r="B7" t="str">
+        <v>http://www.amazon.com/dp/B0B3XPTXGH</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B0CMCHYNNV</v>
+      </c>
+      <c r="B8" t="str">
+        <v>http://www.amazon.com/dp/B0CMCHYNNV</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B0C7V488KX</v>
+      </c>
+      <c r="B9" t="str">
+        <v>http://www.amazon.com/dp/B0C7V488KX</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B0CQK1MK56</v>
+      </c>
+      <c r="B10" t="str">
+        <v>http://www.amazon.com/dp/B0CQK1MK56</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B0CQK27HPY</v>
+      </c>
+      <c r="B11" t="str">
+        <v>http://www.amazon.com/dp/B0CQK27HPY</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B099Q12CSR</v>
+      </c>
+      <c r="B12" t="str">
+        <v>http://www.amazon.com/dp/B07RSZSYNC</v>
+      </c>
+      <c r="C12" t="str">
+        <v>15 已使用，全新</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B0CJMNP25Q</v>
+      </c>
+      <c r="B13" t="str">
+        <v>http://www.amazon.com/dp/B0CJMNP25Q</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B0BJPCBDH1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>http://www.amazon.com/dp/B0BJPCBDH1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B082GTVJV4</v>
+      </c>
+      <c r="B15" t="str">
+        <v>http://www.amazon.com/dp/B082GTVJV4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B00B2HZSZM</v>
+      </c>
+      <c r="B16" t="str">
+        <v>http://www.amazon.com/dp/B00B2HZSZM</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B00B2HZQN6</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://www.amazon.com/dp/B00B2HZQN6</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B0CGV79DRF</v>
+      </c>
+      <c r="B18" t="str">
+        <v>http://www.amazon.com/dp/B0CGV79DRF</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B0C73HTZTL</v>
+      </c>
+      <c r="B19" t="str">
+        <v>http://www.amazon.com/dp/B0C73HTZTL</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B0CMC3D39G</v>
+      </c>
+      <c r="B20" t="str">
+        <v>http://www.amazon.com/dp/B0CMC3D39G</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B0CMLJGDKY</v>
+      </c>
+      <c r="B21" t="str">
+        <v>http://www.amazon.com/dp/B0CMLJGDKY</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B0CQK5GMZW</v>
+      </c>
+      <c r="B22" t="str">
+        <v>http://www.amazon.com/dp/B0CQK5GMZW</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B0BRXS4C3G</v>
+      </c>
+      <c r="B23" t="str">
+        <v>http://www.amazon.com/dp/B0BRXS4C3G</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B0CMT6VC9K</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://www.amazon.com/dp/B0CNCY6H7T</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B0C3J3N2XT</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://www.amazon.com/dp/B0C3J3N2XT</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B098JHTZVY</v>
+      </c>
+      <c r="B26" t="str">
+        <v>http://www.amazon.com/dp/B098JHTZVY</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B09KKL94VQ</v>
+      </c>
+      <c r="B27" t="str">
+        <v>http://www.amazon.com/dp/B0CNCY6H7T</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B0833H3KR3</v>
+      </c>
+      <c r="B28" t="str">
+        <v>http://www.amazon.com/dp/B0833H3KR3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B0B5GLZ5JQ</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://www.amazon.com/dp/B0B5GLZ5JQ</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B0B626JWK2</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.amazon.com/dp/B0B626JWK2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B002TL8J6A</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://www.amazon.com/dp/B002TL8J6A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B09KL7JP48</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://www.amazon.com/dp/B09KL7JP48</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B095DZRT9G</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://www.amazon.com/dp/B095DZRT9G</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B0BRSDW6WC</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.amazon.com/dp/B0BRSDW6WC</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B09WJG53PG</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.amazon.com/dp/B09WJG53PG</v>
+      </c>
+      <c r="C35" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B0BM3CXJM2</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://www.amazon.com/dp/B0BM3CXJM2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B002PNZIAM</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://www.amazon.com/dp/B002PNZIAM</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B0BYD89ZZB</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.amazon.com/dp/B0BYD89ZZB</v>
+      </c>
+      <c r="C38" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B0B2Q2SNNN</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://www.amazon.com/dp/B0B2Q2SNNN</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B0CH3LWV78</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.amazon.com/dp/B0CH3LWV78</v>
+      </c>
+      <c r="C40" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B0CKJBX6R7</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.amazon.com/dp/B0CKJBX6R7</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B00EXJFMKM</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://www.amazon.com/dp/B00EXJFMKM</v>
+      </c>
+      <c r="C42" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B0CVXLQJCL</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://www.amazon.com/dp/B0CVXLQJCL</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B09TTL2PGK</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://www.amazon.com/dp/B09TTL2PGK</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>B0BBV57178</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.amazon.com/dp/B0BBV57178</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B07MR53FZY</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.amazon.com/dp/B07MR53FZY</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B0CQCY7NQQ</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.amazon.com/dp/B0CQCY7NQQ</v>
+      </c>
+      <c r="C47" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>B0CSJZX5VF</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.amazon.com/dp/B0CSJZX5VF</v>
+      </c>
+      <c r="C48" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>B0CQCCFX1N</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.amazon.com/dp/B0CQCCFX1N</v>
+      </c>
+      <c r="C49" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B0C2TH4TJM</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.amazon.com/dp/B0C2TH4TJM</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B0CM6D8J25</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.amazon.com/dp/B0CM6D8J25</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B0CPBHGMJH</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.amazon.com/dp/B0CPBHGMJH</v>
+      </c>
+      <c r="C52" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B0CNWFH1TH</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.amazon.com/dp/B0CNWFH1TH</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>B0CHR99ZW3</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.amazon.com/dp/B0CHR99ZW3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B0C13WMQJV</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.amazon.com/dp/B0C13WMQJV</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B0C3TV7P4C</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.amazon.com/dp/B0C3TV7P4C</v>
+      </c>
+      <c r="C56" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B089SVC21T</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.amazon.com/dp/B089SVC21T</v>
+      </c>
+      <c r="C57" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B0CS8WPHD4</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.amazon.com/dp/B0CS8WPHD4</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>B0CF8HYC5B</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.amazon.com/dp/B0CF8HYC5B</v>
+      </c>
+      <c r="C59" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B0CM9G3YLV</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.amazon.com/dp/B0CM9G3YLV</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B0CMCP88S7</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.amazon.com/dp/B0CMCP88S7</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B08V5MZ7SZ</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.amazon.com/dp/B0BHHG1GP1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>B0C7SPG5KG</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.amazon.com/dp/B0C7SPG5KG</v>
+      </c>
+      <c r="C63" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>B0CR5SDRCN</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.amazon.com/dp/B0CR5SDRCN</v>
+      </c>
+      <c r="C64" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B08KY77LYR</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://www.amazon.com/dp/B08KY77LYR</v>
+      </c>
+      <c r="C65" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>B0CLNH3D6S</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.amazon.com/dp/B0CLNH3D6S</v>
+      </c>
+      <c r="C66" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>B0CKVY7RP3</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.amazon.com/dp/B0CKVY7RP3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>B0925VJH7R</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.amazon.com/dp/B0925VJH7R</v>
+      </c>
+      <c r="C68" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>B08SQH887C</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.amazon.com/dp/B08SQH887C</v>
+      </c>
+      <c r="C69" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>B0CHB87GGL</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.amazon.com/dp/B0CHB87GGL</v>
+      </c>
+      <c r="C70" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>B0CR41RQVX</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.amazon.com/dp/B0CR41RQVX</v>
+      </c>
+      <c r="C71" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>B0CKZK9CR8</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://www.amazon.com/dp/B0CKZK9CR8</v>
+      </c>
+      <c r="C72" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>B0C6YHVN1N</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://www.amazon.com/dp/B0C6YHVN1N</v>
+      </c>
+      <c r="C73" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>B0C4TNL6D1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>http://www.amazon.com/dp/B0C4TNL6D1</v>
+      </c>
+      <c r="C74" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>B09TK41YRG</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://www.amazon.com/dp/B09TK41YRG</v>
+      </c>
+      <c r="C75" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>B0CKR2YB8V</v>
+      </c>
+      <c r="B76" t="str">
+        <v>http://www.amazon.com/dp/B0CKR2YB8V</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>B0BRSGGFJ6</v>
+      </c>
+      <c r="B77" t="str">
+        <v>http://www.amazon.com/dp/B0BRSGGFJ6</v>
+      </c>
+      <c r="C77" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>B0BR3NS9MN</v>
+      </c>
+      <c r="B78" t="str">
+        <v>http://www.amazon.com/dp/B0BR3NS9MN</v>
+      </c>
+      <c r="C78" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>B09WHYDFNY</v>
+      </c>
+      <c r="B79" t="str">
+        <v>http://www.amazon.com/dp/B09WHYDFNY</v>
+      </c>
+      <c r="C79" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>B0BCD5JGPJ</v>
+      </c>
+      <c r="B80" t="str">
+        <v>http://www.amazon.com/dp/B0BCD5JGPJ</v>
+      </c>
+      <c r="C80" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B0BLS66KHJ</v>
+      </c>
+      <c r="B81" t="str">
+        <v>http://www.amazon.com/dp/B0BLS66KHJ</v>
+      </c>
+      <c r="C81" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>B097Q91X22</v>
+      </c>
+      <c r="B82" t="str">
+        <v>http://www.amazon.com/dp/B097Q91X22</v>
+      </c>
+      <c r="C82" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>B0CDH77S4C</v>
+      </c>
+      <c r="B83" t="str">
+        <v>http://www.amazon.com/dp/B0CDH77S4C</v>
+      </c>
+      <c r="C83" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>B083R3JYQ1</v>
+      </c>
+      <c r="B84" t="str">
+        <v>http://www.amazon.com/dp/B083R3JYQ1</v>
+      </c>
+      <c r="C84" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>B09PMKJGMZ</v>
+      </c>
+      <c r="B85" t="str">
+        <v>http://www.amazon.com/dp/B09PMKJGMZ</v>
+      </c>
+      <c r="C85" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>B07DWLQ56M</v>
+      </c>
+      <c r="B86" t="str">
+        <v>http://www.amazon.com/dp/B07DWLQ56M</v>
+      </c>
+      <c r="C86" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>B09RPKHXJX</v>
+      </c>
+      <c r="B87" t="str">
+        <v>http://www.amazon.com/dp/B09RPKHXJX</v>
+      </c>
+      <c r="C87" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>B094ZKC81S</v>
+      </c>
+      <c r="B88" t="str">
+        <v>http://www.amazon.com/dp/B094ZKC81S</v>
+      </c>
+      <c r="C88" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>B0CQY62WGC</v>
+      </c>
+      <c r="B89" t="str">
+        <v>http://www.amazon.com/dp/B0CQY62WGC</v>
+      </c>
+      <c r="C89" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>B0CQT66HQX</v>
+      </c>
+      <c r="B90" t="str">
+        <v>http://www.amazon.com/dp/B0CQT66HQX</v>
+      </c>
+      <c r="C90" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>B0C9Y365VM</v>
+      </c>
+      <c r="B91" t="str">
+        <v>http://www.amazon.com/dp/B0C9Y365VM</v>
+      </c>
+      <c r="C91" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>B09WMGNTWH</v>
+      </c>
+      <c r="B92" t="str">
+        <v>http://www.amazon.com/dp/B09WMGNTWH</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>B0CRDXPL1K</v>
+      </c>
+      <c r="B93" t="str">
+        <v>http://www.amazon.com/dp/B0CRDXPL1K</v>
+      </c>
+      <c r="C93" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>B09SPGKC9J</v>
+      </c>
+      <c r="B94" t="str">
+        <v>http://www.amazon.com/dp/B09SPGKC9J</v>
+      </c>
+      <c r="C94" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>B09Y1JQ3F2</v>
+      </c>
+      <c r="B95" t="str">
+        <v>http://www.amazon.com/dp/B09Y1JQ3F2</v>
+      </c>
+      <c r="C95" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>B0B84S797Q</v>
+      </c>
+      <c r="B96" t="str">
+        <v>http://www.amazon.com/dp/B0B84S797Q</v>
+      </c>
+      <c r="C96" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>B0CY8KHBB7</v>
+      </c>
+      <c r="B97" t="str">
+        <v>http://www.amazon.com/dp/B0CY8KHBB7</v>
+      </c>
+      <c r="C97" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>B0B652V51C</v>
+      </c>
+      <c r="B98" t="str">
+        <v>http://www.amazon.com/dp/B0B652V51C</v>
+      </c>
+      <c r="C98" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>B0CZKYMTB5</v>
+      </c>
+      <c r="B99" t="str">
+        <v>http://www.amazon.com/dp/B0CZKYMTB5</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>B0C248BPC5</v>
+      </c>
+      <c r="B100" t="str">
+        <v>http://www.amazon.com/dp/B0C248BPC5</v>
+      </c>
+      <c r="C100" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>B0C27ZHTPN</v>
+      </c>
+      <c r="B101" t="str">
+        <v>http://www.amazon.com/dp/B0C27ZHTPN</v>
+      </c>
+      <c r="C101" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>B098T7Y7PN</v>
+      </c>
+      <c r="B102" t="str">
+        <v>http://www.amazon.com/dp/B098T7Y7PN</v>
+      </c>
+      <c r="C102" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>B095P4QXMQ</v>
+      </c>
+      <c r="B103" t="str">
+        <v>http://www.amazon.com/dp/B095P4QXMQ</v>
+      </c>
+      <c r="C103" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>B08T16ZPD5</v>
+      </c>
+      <c r="B104" t="str">
+        <v>http://www.amazon.com/dp/B08T16ZPD5</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>B09MYBJKGG</v>
+      </c>
+      <c r="B105" t="str">
+        <v>http://www.amazon.com/dp/B09MYBJKGG</v>
+      </c>
+      <c r="C105" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>B0C6D7FZ1J</v>
+      </c>
+      <c r="B106" t="str">
+        <v>http://www.amazon.com/dp/B0C6D7FZ1J</v>
+      </c>
+      <c r="C106" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>B0C4H1PBPD</v>
+      </c>
+      <c r="B107" t="str">
+        <v>http://www.amazon.com/dp/B0C4H1PBPD</v>
+      </c>
+      <c r="C107" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>B0CN99CB73</v>
+      </c>
+      <c r="B108" t="str">
+        <v>http://www.amazon.com/dp/B0CN99CB73</v>
+      </c>
+      <c r="C108" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>B0BQZQ8V7K</v>
+      </c>
+      <c r="B109" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQ8V7K</v>
+      </c>
+      <c r="C109" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>B07FJHMYJF</v>
+      </c>
+      <c r="B110" t="str">
+        <v>http://www.amazon.com/dp/B07FJHMYJF</v>
+      </c>
+      <c r="C110" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>B0CF9Y8TLG</v>
+      </c>
+      <c r="B111" t="str">
+        <v>http://www.amazon.com/dp/B0CF9Y8TLG</v>
+      </c>
+      <c r="C111" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>B0B5PH9YMC</v>
+      </c>
+      <c r="B112" t="str">
+        <v>http://www.amazon.com/dp/B0B5PH9YMC</v>
+      </c>
+      <c r="C112" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>B0B196G14V</v>
+      </c>
+      <c r="B113" t="str">
+        <v>http://www.amazon.com/dp/B0B196G14V</v>
+      </c>
+      <c r="C113" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>B01M30D6I5</v>
+      </c>
+      <c r="B114" t="str">
+        <v>http://www.amazon.com/dp/B01M30D6I5</v>
+      </c>
+      <c r="C114" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>B0C2THL69V</v>
+      </c>
+      <c r="B115" t="str">
+        <v>http://www.amazon.com/dp/B0C2THL69V</v>
+      </c>
+      <c r="C115" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>B092D19YK3</v>
+      </c>
+      <c r="B116" t="str">
+        <v>http://www.amazon.com/dp/B092D19YK3</v>
+      </c>
+      <c r="C116" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>B0CWR9GLZD</v>
+      </c>
+      <c r="B117" t="str">
+        <v>http://www.amazon.com/dp/B0CWR9GLZD</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>B09T9J82D4</v>
+      </c>
+      <c r="B118" t="str">
+        <v>http://www.amazon.com/dp/B09T9J82D4</v>
+      </c>
+      <c r="C118" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>B07MTSQDPM</v>
+      </c>
+      <c r="B119" t="str">
+        <v>http://www.amazon.com/dp/B07MTSQDPM</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>B08BGVPD8Z</v>
+      </c>
+      <c r="B120" t="str">
+        <v>http://www.amazon.com/dp/B0CQC24STL</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2 已使用，全新</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>B0CBDTKB5B</v>
+      </c>
+      <c r="B121" t="str">
+        <v>http://www.amazon.com/dp/B07RSZSYNC</v>
+      </c>
+      <c r="C121" t="str">
+        <v>15 已使用，全新</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>B008IH6RHW</v>
+      </c>
+      <c r="B122" t="str">
+        <v>http://www.amazon.com/dp/B008IH6RHW</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>B008IGETCI</v>
+      </c>
+      <c r="B123" t="str">
+        <v>http://www.amazon.com/dp/B008IGETCI</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>B09CH196BK</v>
+      </c>
+      <c r="B124" t="str">
+        <v>http://www.amazon.com/dp/B09CH196BK</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>B083NBCB26</v>
+      </c>
+      <c r="B125" t="str">
+        <v>http://www.amazon.com/dp/B083NBCB26</v>
+      </c>
+      <c r="C125" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>B0BXBC1WRK</v>
+      </c>
+      <c r="B126" t="str">
+        <v>http://www.amazon.com/dp/B0BXBC1WRK</v>
+      </c>
+      <c r="C126" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>B0C9J2BJ5N</v>
+      </c>
+      <c r="B127" t="str">
+        <v>http://www.amazon.com/dp/B0C9J2BJ5N</v>
+      </c>
+      <c r="C127" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>B0CSD1RC7P</v>
+      </c>
+      <c r="B128" t="str">
+        <v>http://www.amazon.com/dp/B0CSD1RC7P</v>
+      </c>
+      <c r="C128" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>B08GGB5JGD</v>
+      </c>
+      <c r="B129" t="str">
+        <v>http://www.amazon.com/dp/B08GGB5JGD</v>
+      </c>
+      <c r="C129" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>1804108146</v>
+      </c>
+      <c r="B130" t="str">
+        <v>http://www.amazon.com/dp/B06XKCZ5XV</v>
+      </c>
+      <c r="C130" t="str">
+        <v>12 已使用，全新</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>B0BQZRQ3LN</v>
+      </c>
+      <c r="B131" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRQ3LN</v>
+      </c>
+      <c r="C131" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>B0BQZQRNV4</v>
+      </c>
+      <c r="B132" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQRNV4</v>
+      </c>
+      <c r="C132" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>B0BQZS7JCV</v>
+      </c>
+      <c r="B133" t="str">
+        <v>http://www.amazon.com/dp/B0BQZS7JCV</v>
+      </c>
+      <c r="C133" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>B06ZZ4GSVM</v>
+      </c>
+      <c r="B134" t="str">
+        <v>http://www.amazon.com/dp/B06ZZ4GSVM</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>B0BQZPD4DL</v>
+      </c>
+      <c r="B135" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPD4DL</v>
+      </c>
+      <c r="C135" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>B0BQZP5SP3</v>
+      </c>
+      <c r="B136" t="str">
+        <v>http://www.amazon.com/dp/B0BQZP5SP3</v>
+      </c>
+      <c r="C136" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>B0BQZQF392</v>
+      </c>
+      <c r="B137" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQF392</v>
+      </c>
+      <c r="C137" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>B0BQZNY8HB</v>
+      </c>
+      <c r="B138" t="str">
+        <v>http://www.amazon.com/dp/B0BQZNY8HB</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>B0BQZPMWJL</v>
+      </c>
+      <c r="B139" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPMWJL</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>B0BQZQLLQ5</v>
+      </c>
+      <c r="B140" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQLLQ5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>B0BQZQ13ZS</v>
+      </c>
+      <c r="B141" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQ13ZS</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>B0BQZPP185</v>
+      </c>
+      <c r="B142" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPP185</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>B0BQZPM2Q4</v>
+      </c>
+      <c r="B143" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPM2Q4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>B0BQZRCWVN</v>
+      </c>
+      <c r="B144" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRCWVN</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>B0BQZRPYHC</v>
+      </c>
+      <c r="B145" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRPYHC</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>B0BQZQ9VDM</v>
+      </c>
+      <c r="B146" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQ9VDM</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>B0BQZR7Y4B</v>
+      </c>
+      <c r="B147" t="str">
+        <v>http://www.amazon.com/dp/B0BQZR7Y4B</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>B0BQZRGFBH</v>
+      </c>
+      <c r="B148" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRGFBH</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>B0BQZR6411</v>
+      </c>
+      <c r="B149" t="str">
+        <v>http://www.amazon.com/dp/B0BQZR6411</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>B0BQZRM2K8</v>
+      </c>
+      <c r="B150" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRM2K8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>B0BQZQF2TS</v>
+      </c>
+      <c r="B151" t="str">
+        <v>http://www.amazon.com/dp/B0BQZQF2TS</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>B0BQZPD9K1</v>
+      </c>
+      <c r="B152" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPD9K1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>B0BQZP6JBF</v>
+      </c>
+      <c r="B153" t="str">
+        <v>http://www.amazon.com/dp/B0BQZP6JBF</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>B08GJRKCYD</v>
+      </c>
+      <c r="B154" t="str">
+        <v>http://www.amazon.com/dp/B08GJRKCYD</v>
+      </c>
+      <c r="C154" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>B099DFXBZX</v>
+      </c>
+      <c r="B155" t="str">
+        <v>http://www.amazon.com/dp/B099DFXBZX</v>
+      </c>
+      <c r="C155" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>B0CJNPQFTM</v>
+      </c>
+      <c r="B156" t="str">
+        <v>http://www.amazon.com/dp/B000SMN0J8</v>
+      </c>
+      <c r="C156" t="str">
+        <v>16 已使用，全新</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>B09X8NPKM9</v>
+      </c>
+      <c r="B157" t="str">
+        <v>http://www.amazon.com/dp/B09X8NPKM9</v>
+      </c>
+      <c r="C157" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>B09G38BT6T</v>
+      </c>
+      <c r="B158" t="str">
+        <v>http://www.amazon.com/dp/B09G38BT6T</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>1569718733</v>
+      </c>
+      <c r="B159" t="str">
+        <v>http://www.amazon.com/dp/B002C5NI46</v>
+      </c>
+      <c r="C159" t="str">
+        <v>17 已使用，全新</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>B0BTBMFLNL</v>
+      </c>
+      <c r="B160" t="str">
+        <v>http://www.amazon.com/dp/B0BTBMFLNL</v>
+      </c>
+      <c r="C160" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>B0CR6KT2GF</v>
+      </c>
+      <c r="B161" t="str">
+        <v>http://www.amazon.com/dp/B0CR6KT2GF</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>B08G4WP1QQ</v>
+      </c>
+      <c r="B162" t="str">
+        <v>http://www.amazon.com/dp/B08G4WP1QQ</v>
+      </c>
+      <c r="C162" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>B0CSK8GHMG</v>
+      </c>
+      <c r="B163" t="str">
+        <v>http://www.amazon.com/dp/B0CSK8GHMG</v>
+      </c>
+      <c r="C163" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>B0CV4V8WTR</v>
+      </c>
+      <c r="B164" t="str">
+        <v>http://www.amazon.com/dp/B0CV4V8WTR</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>B0C2V878QF</v>
+      </c>
+      <c r="B165" t="str">
+        <v>http://www.amazon.com/dp/B0C2V878QF</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>B08MYV7NK4</v>
+      </c>
+      <c r="B166" t="str">
+        <v>http://www.amazon.com/dp/B08MYV7NK4</v>
+      </c>
+      <c r="C166" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>B0CHC4JT15</v>
+      </c>
+      <c r="B167" t="str">
+        <v>http://www.amazon.com/dp/B0CHC4JT15</v>
+      </c>
+      <c r="C167" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>B0C7TT8PY4</v>
+      </c>
+      <c r="B168" t="str">
+        <v>http://www.amazon.com/dp/B0C7TT8PY4</v>
+      </c>
+      <c r="C168" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>B08WFM8TG5</v>
+      </c>
+      <c r="B169" t="str">
+        <v>http://www.amazon.com/dp/B08WFM8TG5</v>
+      </c>
+      <c r="C169" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>B0CQQXWGQT</v>
+      </c>
+      <c r="B170" t="str">
+        <v>http://www.amazon.com/dp/B0CQQXWGQT</v>
+      </c>
+      <c r="C170" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>B0B2W2W2B2</v>
+      </c>
+      <c r="B171" t="str">
+        <v>http://www.amazon.com/dp/B0B2W2W2B2</v>
+      </c>
+      <c r="C171" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>B005DS7LHO</v>
+      </c>
+      <c r="B172" t="str">
+        <v>http://www.amazon.com/dp/B005DS7LHO</v>
+      </c>
+      <c r="C172" t="str">
+        <v>1 已使用，全新</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>B00BR5HPQE</v>
+      </c>
+      <c r="B173" t="str">
+        <v>http://www.amazon.com/dp/B0C3VFB3FR</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>B0B2MHBVT5</v>
+      </c>
+      <c r="B174" t="str">
+        <v>http://www.amazon.com/dp/B0B2MHBVT5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>B091H6XY46</v>
+      </c>
+      <c r="B175" t="str">
+        <v>http://www.amazon.com/dp/B091H6XY46</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>B07J3H64VK</v>
+      </c>
+      <c r="B176" t="str">
+        <v>http://www.amazon.com/dp/B07J3H64VK</v>
+      </c>
+      <c r="C176" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>B07MZ9153S</v>
+      </c>
+      <c r="B177" t="str">
+        <v>http://www.amazon.com/dp/B07MZ9153S</v>
+      </c>
+      <c r="C177" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>B0CWV91XCS</v>
+      </c>
+      <c r="B178" t="str">
+        <v>http://www.amazon.com/dp/B0CWV91XCS</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>B0BQZRMDX9</v>
+      </c>
+      <c r="B179" t="str">
+        <v>http://www.amazon.com/dp/B0BQZRMDX9</v>
+      </c>
+      <c r="C179" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>B0BQZP7TBJ</v>
+      </c>
+      <c r="B180" t="str">
+        <v>http://www.amazon.com/dp/B0BQZP7TBJ</v>
+      </c>
+      <c r="C180" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>B0BQZR979Q</v>
+      </c>
+      <c r="B181" t="str">
+        <v>http://www.amazon.com/dp/B0BQZR979Q</v>
+      </c>
+      <c r="C181" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>B0BQZPTQS7</v>
+      </c>
+      <c r="B182" t="str">
+        <v>http://www.amazon.com/dp/B0BQZPTQS7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>B00400N2ZQ</v>
+      </c>
+      <c r="B183" t="str">
+        <v>http://www.amazon.com/dp/B00400N2ZQ</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>B0BHSQNMTG</v>
+      </c>
+      <c r="B184" t="str">
+        <v>http://www.amazon.com/dp/B0BHSQNMTG</v>
+      </c>
+      <c r="C184" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>B085PZHX3L</v>
+      </c>
+      <c r="B185" t="str">
+        <v>http://www.amazon.com/dp/B085PZHX3L</v>
+      </c>
+      <c r="C185" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>B09B5F6ZSP</v>
+      </c>
+      <c r="B186" t="str">
+        <v>http://www.amazon.com/dp/B09B5F6ZSP</v>
+      </c>
+      <c r="C186" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>B079JL3966</v>
+      </c>
+      <c r="B187" t="str">
+        <v>http://www.amazon.com/dp/B079JL3966</v>
+      </c>
+      <c r="C187" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>B08JFT2B4S</v>
+      </c>
+      <c r="B188" t="str">
+        <v>http://www.amazon.com/dp/B07RSZSYNC</v>
+      </c>
+      <c r="C188" t="str">
+        <v>15 已使用，全新</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>B0CLFN384T</v>
+      </c>
+      <c r="B189" t="str">
+        <v>http://www.amazon.com/dp/B0CLFN384T</v>
+      </c>
+      <c r="C189" t="str">
+        <v>0 已使用，全新</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C189"/>
   </ignoredErrors>
 </worksheet>
 </file>